--- a/resources/Research Tracker.xlsx
+++ b/resources/Research Tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>S.No</t>
   </si>
@@ -591,14 +591,265 @@
     </r>
   </si>
   <si>
-    <t>https://www.nature.com/articles/s42003-021-01937-1</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>STORK - System for Time-lapse Observation and Ranking of Key-embryos</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41598-025-94680-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help doctors pick best embryo in IVF using AI </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Used</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Real + synthetic embryo images
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Stages: 2-cell, 4-cell, 8-cell, morula, blastocyst</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">available in the paper </t>
+  </si>
+  <si>
+    <t>Create synthetic images → Mix with real → Train model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAN
+Diffusion model
+Classifier (to detect stage) </t>
+  </si>
+  <si>
+    <t>Real + Synthetic: 97%
+Only real: 94.5%
+Only synthetic: 92%</t>
+  </si>
+  <si>
+    <t>synthetic data means fake data created by computers 🧠💻 — not collected from real-world patients.</t>
+  </si>
+  <si>
+    <t>Synthetic data boosts accuracy
+Diffusion &gt; GAN
+Embryologists got tricked by synthetic</t>
+  </si>
+  <si>
+    <t>In IVF treatments, accurately predicting embryo implantation success is crucial. This study explores whether combining metabolomic data (from embryo culture media) and embryologic data with machine learning (ML) models can enhance prediction accuracy.</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s43032-022-01071-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Used:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Spent culture medium (SCM) samples from 56 infertile couples undergoing day-5 single blastocyst transfer.                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Variables:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Metabolomic Data, Embryologic Data</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The article does not specify if the dataset is publicly available. </t>
+  </si>
+  <si>
+    <r>
+      <t>The study employed Nuclear Magnetic Resonance (NMR) spectroscopy to analyze metabolite levels in SCM. These metabolomic profiles, along with embryologic data, were input into various ML models to predict embryo implantation outcome</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>Metabolomic Data Alone: Classical ML models achieved 50–67% accuracy.​
+Embryologic Data Alone: Similar accuracy range of 50–67%.
+Combined Data:
+Classical ML Models: Accuracy improved to 80–100%.​
+Custom ANN Model: Achieved 100% accuracy with metabolomic data.​</t>
+  </si>
+  <si>
+    <t>Metabolite + morphology = better prediction combo!</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1186/s12884-021-04373-5</t>
+  </si>
+  <si>
+    <t>Selecting the best embryo for IVF is crucial for successful single embryo transfers. Traditional methods lack precision, leading to lower success rates.​</t>
+  </si>
+  <si>
+    <t>Analyzed time-lapse images from 15,434 embryos, focusing on developmental stages and live birth outcomes.</t>
+  </si>
+  <si>
+    <t>The dataset isn't publicly available; contact the authors for access.​</t>
+  </si>
+  <si>
+    <t>Developed a deep learning model to predict live birth probabilities from time-lapse embryo images</t>
+  </si>
+  <si>
+    <t>Implemented a convolutional neural network (CNN) for image analysis</t>
+  </si>
+  <si>
+    <t>Achieved an AUC of 0.968 in 5-fold cross-validation, indicating high predictive accuracy.​</t>
+  </si>
+  <si>
+    <t>The model automates embryo evaluation, reducing the need for manual assessment.</t>
+  </si>
+  <si>
+    <t>Classical ML Algorithms: Decision Tree, Random Forest, Neural Network, AdaBoost, Naïve Bayes.
+Custom Model: Artificial Neural Network (ANN) with regularized parameters.​</t>
+  </si>
+  <si>
+    <t>Blue color are deep learning model used</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0015028221004957</t>
+  </si>
+  <si>
+    <t>Predicting pregnancy outcomes after single vitrified-warmed blastocyst transfer (SVBT) to improve IVF success rates.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Used</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Embryo images and patient age data from IVF procedures.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Patient age, embryo quality, and pregnancy outcomes.</t>
+    </r>
+  </si>
+  <si>
+    <t>The dataset isn't publicly available; contact the authors for access.</t>
+  </si>
+  <si>
+    <t>Developed a deep learning model to predict pregnancy outcomes based on embryo images and patient age.</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks (CNN) for image analysis and prediction.</t>
+  </si>
+  <si>
+    <t>Achieved an Area Under the Curve (AUC) of 0.85, indicating good predictive performance.</t>
+  </si>
+  <si>
+    <t>The model provides a non-invasive method to assess embryo viability, potentially enhancing IVF success rates.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -693,8 +944,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,8 +978,18 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -736,13 +1012,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -786,11 +1079,37 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1009,15 +1328,15 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
     <col min="4" max="4" width="49.28515625" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" customWidth="1"/>
@@ -1026,7 +1345,7 @@
     <col min="9" max="9" width="104.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1358,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1054,7 +1373,9 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1101,7 +1422,9 @@
       <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4">
+        <v>2022</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -1148,7 +1471,9 @@
       <c r="I3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4">
+        <v>2020</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1195,7 +1520,9 @@
       <c r="I4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4">
+        <v>2021</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1242,7 +1569,9 @@
       <c r="I5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4">
+        <v>2024</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1289,7 +1618,9 @@
       <c r="I6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4">
+        <v>2019</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1336,7 +1667,9 @@
       <c r="I7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4">
+        <v>2019</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1355,21 +1688,37 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2025</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1388,19 +1737,37 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="4"/>
+      <c r="B9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2024</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1419,19 +1786,37 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2022</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1450,19 +1835,37 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="4"/>
+      <c r="B11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2021</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1664,7 +2067,9 @@
       <c r="B18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1690,9 +2095,11 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1719,34 +2126,36 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
+    <row r="20" spans="1:27" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
     </row>
     <row r="21" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
@@ -30177,8 +30586,11 @@
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
     <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>